--- a/src/results/1 day.xlsx
+++ b/src/results/1 day.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>camel</t>
   </si>
@@ -67,12 +67,60 @@
   <si>
     <t>VCB</t>
   </si>
+  <si>
+    <t>W/T/L</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>14 Days</t>
+  </si>
+  <si>
+    <t>30 Days</t>
+  </si>
+  <si>
+    <t>31 Days</t>
+  </si>
+  <si>
+    <t>32 Days</t>
+  </si>
+  <si>
+    <t>33 Days</t>
+  </si>
+  <si>
+    <t>34 Days</t>
+  </si>
+  <si>
+    <t>35 Days</t>
+  </si>
+  <si>
+    <t>36 Days</t>
+  </si>
+  <si>
+    <t>37 Days</t>
+  </si>
+  <si>
+    <t>38 Days</t>
+  </si>
+  <si>
+    <t>0/0/9</t>
+  </si>
+  <si>
+    <t>7/0/2</t>
+  </si>
+  <si>
+    <t>2/0/7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +133,38 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,17 +187,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -226,7 +321,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -252,7 +347,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -287,7 +382,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -327,7 +422,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -354,7 +449,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -389,7 +484,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -429,7 +524,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -453,7 +548,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -488,7 +583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -528,7 +623,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -554,7 +649,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -589,7 +684,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1379,15 +1474,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1974,184 +2069,786 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="5">
         <v>55</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>44</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>24</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="5">
         <v>55</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>29</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="5">
         <v>53</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>44</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>34</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="5">
         <v>49</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>51</v>
-      </c>
-      <c r="C6">
-        <v>42</v>
       </c>
       <c r="D6">
         <v>42</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
+        <v>42</v>
+      </c>
+      <c r="F6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="5">
         <v>34</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>55</v>
-      </c>
-      <c r="C8">
-        <v>32</v>
       </c>
       <c r="D8">
         <v>32</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
+        <v>32</v>
+      </c>
+      <c r="F8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="5">
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3">
+        <v>36</v>
+      </c>
+      <c r="F16" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
+      </c>
+      <c r="F32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>24</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:E10">
-    <sortCondition descending="1" ref="D2:D10"/>
+  <sortState ref="B2:F10">
+    <sortCondition descending="1" ref="E2:E10"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
